--- a/biology/Médecine/Myopathie_à_némaline/Myopathie_à_némaline.xlsx
+++ b/biology/Médecine/Myopathie_à_némaline/Myopathie_à_némaline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Myopathie_%C3%A0_n%C3%A9maline</t>
+          <t>Myopathie_à_némaline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La myopathie à némaline (ou myopathie à bâtonnets) se caractérise par une faiblesse et une hypotonie musculaire avec une diminution ou une abolition des réflexes tendineux.
 Cette myopathie atteint surtout le visage, les muscles fléchisseurs du cou, et les muscles proximaux des membres.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Myopathie_%C3%A0_n%C3%A9maline</t>
+          <t>Myopathie_à_némaline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mutation de plusieurs gènes est associée avec la maladie[1] : NEB, ACTA1, TPM3, TPM2, CFL2, TNNT1, KBTBD13, KLHL40, KLHL41[2] et LMOD3[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mutation de plusieurs gènes est associée avec la maladie : NEB, ACTA1, TPM3, TPM2, CFL2, TNNT1, KBTBD13, KLHL40, KLHL41 et LMOD3.
 Les « némalines » sont des agrégats protéiques visualisés sous forme de bâtonnets dans les fibres musculaires.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Myopathie_%C3%A0_n%C3%A9maline</t>
+          <t>Myopathie_à_némaline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Typologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe six types de myopathie à némaline selon l'âge de début, la sévérité des troubles moteurs et l'atteinte des muscles respiratoires :
 La forme congénitale sévère ou néonatale (16 %) ;
